--- a/medicine/Pharmacie/1706_en_santé_et_médecine/1706_en_santé_et_médecine.xlsx
+++ b/medicine/Pharmacie/1706_en_santé_et_médecine/1706_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1706_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1706_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1706 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1706_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1706_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>En 1706-1707, une épidémie de dysenterie provoque d’importantes surmortalités notamment dans le Maine, en Anjou et dans le Haut-Poitou[1].
-Fondation de la Société royale des sciences de Montpellier[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>En 1706-1707, une épidémie de dysenterie provoque d’importantes surmortalités notamment dans le Maine, en Anjou et dans le Haut-Poitou.
+Fondation de la Société royale des sciences de Montpellier.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1706_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1706_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Giovanni Battista Morgagni publie Adversaria anatomica (lire en ligne), premier tome d'une série sur l'anatomie humaine[3].
-Narabayashi Chinzan traduit en japonais les œuvres complètes d'Ambroise Paré[3].
-Michel Brisseau publie à Tournay Nouvelles observations sur la cataracte (lire en ligne)[3].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Giovanni Battista Morgagni publie Adversaria anatomica (lire en ligne), premier tome d'une série sur l'anatomie humaine.
+Narabayashi Chinzan traduit en japonais les œuvres complètes d'Ambroise Paré.
+Michel Brisseau publie à Tournay Nouvelles observations sur la cataracte (lire en ligne).</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1706_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1706_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,11 +590,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>11 février : Nils Rosén von Rosenstein (mort en 1773), médecin, anatomiste et naturaliste suédois[4].
-12 mai : François Boissier de Sauvages de Lacroix (mort en 1767), médecin et botaniste français[5].
-10 juin : John Dollond (mort en 1761), opticien anglais[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>11 février : Nils Rosén von Rosenstein (mort en 1773), médecin, anatomiste et naturaliste suédois.
+12 mai : François Boissier de Sauvages de Lacroix (mort en 1767), médecin et botaniste français.
+10 juin : John Dollond (mort en 1761), opticien anglais.</t>
         </is>
       </c>
     </row>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1706_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1706_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>15 juin : Giorgio Baglivi (né en 1668), médecin italien[7].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>15 juin : Giorgio Baglivi (né en 1668), médecin italien.</t>
         </is>
       </c>
     </row>
